--- a/biology/Biologie cellulaire et moléculaire/Réarrangement_de_génomes/Réarrangement_de_génomes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Réarrangement_de_génomes/Réarrangement_de_génomes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9arrangement_de_g%C3%A9nomes</t>
+          <t>Réarrangement_de_génomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un évènement de réarrangement de génome est un élément de la dynamique des génomes au cours duquel un génome voit son organisation générale modifiée par le déplacement, la suppression ou la duplication de parties de sa séquence. Les réarrangements de génome couvrent entre autres :
 au sein d'une même molécule d'ADN :
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9arrangement_de_g%C3%A9nomes</t>
+          <t>Réarrangement_de_génomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Analyse des remaniements chromosomiques entre espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le problème du réarrangement de génomes est un problème de biologie qui peut s'énoncer comme suit : étant donnés deux génomes, trouver le nombre minimal de mutations transformant l'un en l'autre. C'est vers la fin des années 1980 que Jeffrey Palmer et ses collègues ont découvert que des organismes très proches au niveau des gènes qu'ils partagent pouvaient néanmoins diverger fortement concernant l'ordre dans lequel ces gènes étaient agencés.
 Ce problème a également été étudié par les mathématiciens et les informaticiens depuis une quinzaine d'années. Parmi les pionniers et les chercheurs les plus prolifiques dans ce domaine, on peut sans aucun doute citer David Sankoff, Vineet Bafna, Sridhar Hannenhalli et Pavel Pevzner. Beaucoup de travail reste à faire, et on a naturellement commencé la recherche par l'étude de formes restreintes du problème, notamment dans le cas où l'on suppose que seul un type de mutation peut se produire. Les mutations étudiées sont entre autres :
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9arrangement_de_g%C3%A9nomes</t>
+          <t>Réarrangement_de_génomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Modélisations proposées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs modélisations ont été proposées selon le cas dans lequel on se trouve :
 si l'ordre des gènes est connu et que les génomes étudiés partagent le même nombre et ensemble de gènes sans duplications, on peut les représenter par des permutations et le problème de réarrangement se ramène à un calcul de distance entre permutations. Au moins dans le cas des inversions et des transpositions, les distances ainsi définies sont invariantes à gauche, c'est-à-dire que calculer la distance entre une permutation 
